--- a/system-admin/import_services.xlsx
+++ b/system-admin/import_services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC49FBDD-7FA9-4EF7-B663-9DF6FEB90D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A455B0-2DB6-4C5F-9A17-AB5C2D3E3914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D52E3EEF-53E6-4372-B35F-0894A6C3E55A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="420">
   <si>
     <t>Service Type</t>
   </si>
@@ -1269,16 +1269,34 @@
     <t>AADHAR Verification</t>
   </si>
   <si>
-    <t>IS WEBSERVICE</t>
+    <t>Is Webservice</t>
   </si>
   <si>
     <t>YES / NO</t>
   </si>
   <si>
+    <t>10th Certificate</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PAN CARD, ADHAR CARD COPY</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>12th Certificate</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>Criminal</t>
+    <t>PAN CARD</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1446,10 +1464,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,7 +1476,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1781,13 +1797,14 @@
   <dimension ref="A1:XFB247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -1813,12 +1830,12 @@
       </c>
     </row>
     <row r="2" spans="1:4 16381:16382" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="XFA2" s="5" t="s">
         <v>162</v>
       </c>
@@ -1847,12 +1864,12 @@
       </c>
     </row>
     <row r="4" spans="1:4 16381:16382" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="XFA4" s="5" t="s">
         <v>164</v>
       </c>
@@ -1862,16 +1879,16 @@
     </row>
     <row r="5" spans="1:4 16381:16382" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B5" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>413</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>408</v>
+        <v>414</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="XFA5" s="5" t="s">
         <v>165</v>
@@ -1880,8 +1897,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4 16381:16382" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
+    <row r="6" spans="1:4 16381:16382" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="XFA6" s="5" t="s">
         <v>166</v>
       </c>
@@ -1890,6 +1918,18 @@
       </c>
     </row>
     <row r="7" spans="1:4 16381:16382" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="XFA7" s="5" t="s">
         <v>167</v>
       </c>
@@ -3812,14 +3852,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LorMsHtyZIphSeLuMVskropQtClwcAuiG9SAOCEjsc56K/D+SQp4dRdxqBa0f/6cfAWPg3UVg6gaA9ZwzoB2EA==" saltValue="z1ZhlGKB7RsudgSHzK9RZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uDgnTJZS60Yh2OoWM1myli+ncSEz13g28/fxBl9vqZPrA694RQr48tcnwz6cdUKLzWaHPgNmHlcpuhnodeUZDA==" saltValue="07EB29YVprzim3Rvd8vF3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{4A06F65F-CA8C-4555-B6B4-0D14DA905FFA}">
-      <formula1>"YES,NO"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{28434671-D0F6-43C5-B5E5-B541F160D0C8}">
+      <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
